--- a/Dane RTV.xlsx
+++ b/Dane RTV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peper\OneDrive\Dokumenty\Bazy danych P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politechnikawroclawska-my.sharepoint.com/personal/253035_student_pwr_edu_pl/Documents/Studia/Sem5/Baza_danych/projekt/BazaDanychProjekt-master/BazaDanychProjekt-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF720995-B7C0-4412-9A67-92773D8E9126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="455" documentId="8_{FF720995-B7C0-4412-9A67-92773D8E9126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C78A189-B1CD-450C-A2A3-3A8B3B2E1566}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83ACCD14-FEC2-4534-8427-075E270B5D0C}"/>
+    <workbookView xWindow="-2895" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{83ACCD14-FEC2-4534-8427-075E270B5D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkty" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="261">
   <si>
     <t>producent_id</t>
   </si>
@@ -594,13 +594,241 @@
   </si>
   <si>
     <t>Soundbar LG SJ2</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>kontakt@canon.com</t>
+  </si>
+  <si>
+    <t>Wrocław Legnicka 51</t>
+  </si>
+  <si>
+    <t>i-SENSYS LBP226dw</t>
+  </si>
+  <si>
+    <t>Drukarki</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa, druk dwustronny, tylko czarno-biały, szybkość druku 38str/min, USB 2.0</t>
+  </si>
+  <si>
+    <t>i-SENSYS LBP162dw</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa, druk dwustronny, tylko czarno-biały, szybkość druku 28str/min, USB 2.0, Wi-Fi, Ethernet, USB typu B</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>kontakt@hp.com</t>
+  </si>
+  <si>
+    <t>Wrocław Kochanowskiego 17</t>
+  </si>
+  <si>
+    <t>Neverstop Laser 1000w</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa, druk dwustronny, tylko czarno-biały, szybkość druku 20str/min, USB 2.0, 600x600 DPI</t>
+  </si>
+  <si>
+    <t>LaserJet Pro M15w</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa, druk dwustronny, tylko czarno-biały, szybkość druku 28str/min, USB 2.0, 600x600 DPI, Wi-Fi, Ethernet,</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa, druk dwustronny, tylko czarno-biały, szybkość druku 20str/min, USB 2.0, 1200x1200 DPI</t>
+  </si>
+  <si>
+    <t>Laser 107a</t>
+  </si>
+  <si>
+    <t>Drukarka atramentowa, druk dwustronny, kolorowa, szybkość druku 14str/min, USB 2.0, 9600x2400 DPI</t>
+  </si>
+  <si>
+    <t>PIXMA iP8750</t>
+  </si>
+  <si>
+    <t>PIXMA G540</t>
+  </si>
+  <si>
+    <t>Drukarka atramentowa, druk dwustronny ręczny, kolorowa, szybkość druku 4str/min, USB 2.0, 4800x1200 DPI</t>
+  </si>
+  <si>
+    <t>Drukarka atramentowa, druk dwustronny ręczny, kolorowa, szybkość druku 10str/min, USB 2.0, 1200x600 DPI</t>
+  </si>
+  <si>
+    <t>Officejet Pro 6230</t>
+  </si>
+  <si>
+    <t>Drukarka atramentowa, druk dwustronny ręczny, kolorowa, szybkość druku 18str/min, USB 2.0, 1200x1200 DPI</t>
+  </si>
+  <si>
+    <t>Officejet Pro 8210</t>
+  </si>
+  <si>
+    <t>Drukarka atramentowa, druk dwustronny ręczny, kolorowa, USB 2.0, 4800x1200 DPI</t>
+  </si>
+  <si>
+    <t>PIXMA G1411</t>
+  </si>
+  <si>
+    <t>Epson</t>
+  </si>
+  <si>
+    <t>kontakt@epson.com</t>
+  </si>
+  <si>
+    <t>Wrocław Piłsudskiego 64</t>
+  </si>
+  <si>
+    <t>EcoTank M1120</t>
+  </si>
+  <si>
+    <t>Drukarka atramentowa, druk dwustronny ręczny, czarno-biała, USB 2.0, szybkość druku 32str/min 1440x720 DPI</t>
+  </si>
+  <si>
+    <t>Drukarka atramentowa, druk dwustronny, czarno-biała, USB 2.0, szybkość druku 24str/min, 1200x1200 DPI</t>
+  </si>
+  <si>
+    <t>WorkForce Pro WF-M5298DW</t>
+  </si>
+  <si>
+    <t>Urządzenie wielofunkcyjne, drukarka atramentowa,  druk dwustronny ręczny, kolorowy, USB 2.0, szybkość druku 15str/min, 5760x1440 DPI, skaner optyczny, kopiarka, faks</t>
+  </si>
+  <si>
+    <t>EcoTank L3251</t>
+  </si>
+  <si>
+    <t>Urządzenie wielofunkcyjne, drukarka atramentowa,  druk dwustronny ręczny, kolorowy, USB typu B, szybkość druku 15str/min, 5760x1440 DPI, skaner optyczny, kopiarka, faks</t>
+  </si>
+  <si>
+    <t>EcoTank L3260</t>
+  </si>
+  <si>
+    <t>Urządzenie wielofunkcyjne, drukarka atramentowa,  druk dwustronny, kolorowy, USB typu B, szybkość druku 20str/min, 4800x1200 DPI, skaner optyczny, kopiarka, faks</t>
+  </si>
+  <si>
+    <t>EcoTank L6170</t>
+  </si>
+  <si>
+    <t>Roboty kuchenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moc 1000W, pojemność kielicha 1.25L, regulacja obrotów elektroniczna, 7 poziomów obrotów, praca pulsacyjna  </t>
+  </si>
+  <si>
+    <t>MUM58365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moc 700W, pojemność kielicha 1L, regulacja obrotów mechaniczna, 4 poziomy obrotów, praca pulsacyjna  </t>
+  </si>
+  <si>
+    <t>MUMS2EW40</t>
+  </si>
+  <si>
+    <t>MPM</t>
+  </si>
+  <si>
+    <t>kontakt@mpm.com</t>
+  </si>
+  <si>
+    <t>Wrocław Stawowa 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moc 1000W, pojemność kielicha 1.25L, regulacja obrotów elektroniczna, 7 poziomy obrotów, praca pulsacyjna  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moc 1300W, pojemność kielicha 1.25L, regulacja obrotów elektroniczna, gotowanie na parze, funkcja ważenia  </t>
+  </si>
+  <si>
+    <t>iCoook MRK-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moc 1000W, pojemność kielicha 1.5L, regulacja obrotów elektroniczna, 7 poziomów obrotów, praca pulsacyjna, możliwość mycia w zmywarce  </t>
+  </si>
+  <si>
+    <t>MUM58259</t>
+  </si>
+  <si>
+    <t>MUM58234</t>
+  </si>
+  <si>
+    <t>Moc 1000W, pojemność kielicha 1.25L, regulacja obrotów elektroniczna, 7 poziomów obrotów, praca pulsacyjna, możliwość mycia w zmywarce, dwie misy</t>
+  </si>
+  <si>
+    <t>Moc 1300W, pojemność kielicha 1L, regulacja obrotów elektroniczna, 12 poziomów obrotów, możliwość mycia w zmywarce, Wi-Fi</t>
+  </si>
+  <si>
+    <t>iCoook MRK-18</t>
+  </si>
+  <si>
+    <t>Moc 1000W, pojemność kielicha 1.75L, regulacja obrotów elektroniczna, możliwość mycia w zmywarce, dwie misy</t>
+  </si>
+  <si>
+    <t>MMR-12</t>
+  </si>
+  <si>
+    <t>Kenwood</t>
+  </si>
+  <si>
+    <t>kontakt@kenwood.com</t>
+  </si>
+  <si>
+    <t>Warszawa Puławska 303</t>
+  </si>
+  <si>
+    <t>Moc 1200W, pojemność kielicha 2L, regulacja obrotów elektroniczna, praca pulsacyjna, możliwość mycia w zmywarce</t>
+  </si>
+  <si>
+    <t>Chef XL KVL4140S</t>
+  </si>
+  <si>
+    <t>Moc 1700W, pojemność kielicha 1.6L, regulacja obrotów elektroniczna, praca pulsacyjna, możliwość mycia w zmywarce, zabezpieczenie przed przegrzaniem</t>
+  </si>
+  <si>
+    <t>Chef XL Titanium KVL8400S</t>
+  </si>
+  <si>
+    <t>Moc 1500W, pojemność kielicha 1.6L, regulacja obrotów elektroniczna, 10 poziomów obrotów, praca pulsacyjna, możliwość mycia w zmywarce, zabezpieczenie przed przegrzaniem</t>
+  </si>
+  <si>
+    <t>Cooking Chef XL KCL95.424SI</t>
+  </si>
+  <si>
+    <t>Moc 1000W, pojemność kielicha 1.2L, regulacja obrotów mechaniczna, 6 poziomów obrotów, praca pulsacyjna, zabezpieczenie przed przegrzaniem</t>
+  </si>
+  <si>
+    <t>Prospero+ KHC29.W0SI</t>
+  </si>
+  <si>
+    <t>Moc 1200W, pojemność kielicha 1.6L, regulacja obrotów elektroniczna, zabezpieczenie przed przegrzaniem, funkcja ważenia</t>
+  </si>
+  <si>
+    <t>Titanium Chef Baker KVC85.124SI</t>
+  </si>
+  <si>
+    <t>Moc 1000W, pojemność kielicha 1.2L, regulacja obrotów mechaniczna, praca pulsacyjna, zabezpieczenie przed przegrzaniem, mieszanie planetarne</t>
+  </si>
+  <si>
+    <t>Prospero+ KHC29.J0SI</t>
+  </si>
+  <si>
+    <t>Moc 1700W, pojemność kielicha 1.6L, regulacja obrotów elektroniczna, praca pulsacyjna, zabezpieczenie przed przegrzaniem, podświetlenie misy</t>
+  </si>
+  <si>
+    <t>Chef XL Titanium KVL8499S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +841,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -965,19 +1200,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6F61ED-3143-4309-97D0-1AA785A34847}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="14.33203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="8" width="14.28515625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1003,7 +1239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1029,7 +1265,7 @@
         <v>2799.99</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1055,7 +1291,7 @@
         <v>2499.9899999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1081,7 +1317,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1107,7 +1343,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1133,7 +1369,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1159,7 +1395,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1185,7 +1421,7 @@
         <v>1799.99</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1211,7 +1447,7 @@
         <v>2099.9899999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1237,7 +1473,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1263,7 +1499,7 @@
         <v>2499.9899999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1289,7 +1525,7 @@
         <v>2599.9899999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1315,7 +1551,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1341,7 +1577,7 @@
         <v>6199</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1367,7 +1603,7 @@
         <v>3499.99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1393,7 +1629,7 @@
         <v>2799.99</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1419,7 +1655,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1445,7 +1681,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1471,7 +1707,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1497,7 +1733,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1523,7 +1759,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1549,7 +1785,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1575,7 +1811,7 @@
         <v>2599.9899999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1601,7 +1837,7 @@
         <v>5849</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1627,7 +1863,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1653,7 +1889,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1679,7 +1915,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1705,7 +1941,7 @@
         <v>6789</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1731,7 +1967,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1757,7 +1993,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1783,7 +2019,7 @@
         <v>1399.99</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1809,7 +2045,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1835,7 +2071,7 @@
         <v>4499</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1861,7 +2097,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1887,7 +2123,7 @@
         <v>7990</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1913,7 +2149,7 @@
         <v>5970</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1939,7 +2175,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1965,7 +2201,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1991,7 +2227,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2017,7 +2253,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2043,7 +2279,7 @@
         <v>7199</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2069,7 +2305,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2095,7 +2331,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2121,7 +2357,7 @@
         <v>5190</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2147,7 +2383,7 @@
         <v>5199</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2173,7 +2409,7 @@
         <v>11699</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2199,7 +2435,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2225,7 +2461,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2251,7 +2487,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2277,7 +2513,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2303,7 +2539,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2329,7 +2565,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2355,7 +2591,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2381,7 +2617,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2407,7 +2643,7 @@
         <v>899.99</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2433,7 +2669,7 @@
         <v>699.99</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2459,7 +2695,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2485,7 +2721,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2511,7 +2747,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2537,7 +2773,7 @@
         <v>299.99</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2563,27 +2799,807 @@
         <v>599</v>
       </c>
     </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3">
+        <v>61</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>61</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G62" s="3">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>15</v>
+      </c>
+      <c r="C63" s="3">
+        <v>62</v>
+      </c>
+      <c r="D63" s="3">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3">
+        <v>62</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G63" s="3">
+        <v>17</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>16</v>
+      </c>
+      <c r="C64" s="3">
+        <v>63</v>
+      </c>
+      <c r="D64" s="3">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3">
+        <v>63</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G64" s="3">
+        <v>7</v>
+      </c>
+      <c r="H64" s="3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>16</v>
+      </c>
+      <c r="C65" s="3">
+        <v>64</v>
+      </c>
+      <c r="D65" s="3">
+        <v>5</v>
+      </c>
+      <c r="E65" s="3">
+        <v>64</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" s="3">
+        <v>5</v>
+      </c>
+      <c r="H65" s="3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>16</v>
+      </c>
+      <c r="C66" s="3">
+        <v>65</v>
+      </c>
+      <c r="D66" s="3">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>65</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>10</v>
+      </c>
+      <c r="H66" s="3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>15</v>
+      </c>
+      <c r="C67" s="3">
+        <v>66</v>
+      </c>
+      <c r="D67" s="3">
+        <v>5</v>
+      </c>
+      <c r="E67" s="3">
+        <v>66</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G67" s="3">
+        <v>18</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>15</v>
+      </c>
+      <c r="C68" s="3">
+        <v>67</v>
+      </c>
+      <c r="D68" s="3">
+        <v>5</v>
+      </c>
+      <c r="E68" s="3">
+        <v>67</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G68" s="3">
+        <v>22</v>
+      </c>
+      <c r="H68" s="3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>16</v>
+      </c>
+      <c r="C69" s="3">
+        <v>68</v>
+      </c>
+      <c r="D69" s="3">
+        <v>5</v>
+      </c>
+      <c r="E69" s="3">
+        <v>68</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G69" s="3">
+        <v>15</v>
+      </c>
+      <c r="H69" s="3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>16</v>
+      </c>
+      <c r="C70" s="3">
+        <v>69</v>
+      </c>
+      <c r="D70" s="3">
+        <v>5</v>
+      </c>
+      <c r="E70" s="3">
+        <v>69</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G70" s="3">
+        <v>37</v>
+      </c>
+      <c r="H70" s="3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>15</v>
+      </c>
+      <c r="C71" s="3">
+        <v>70</v>
+      </c>
+      <c r="D71" s="3">
+        <v>5</v>
+      </c>
+      <c r="E71" s="3">
+        <v>70</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G71" s="3">
+        <v>14</v>
+      </c>
+      <c r="H71" s="3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>17</v>
+      </c>
+      <c r="C72" s="3">
+        <v>71</v>
+      </c>
+      <c r="D72" s="3">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>71</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G72" s="3">
+        <v>19</v>
+      </c>
+      <c r="H72" s="3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>17</v>
+      </c>
+      <c r="C73" s="3">
+        <v>72</v>
+      </c>
+      <c r="D73" s="3">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3">
+        <v>72</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G73" s="3">
+        <v>8</v>
+      </c>
+      <c r="H73" s="3">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>17</v>
+      </c>
+      <c r="C74" s="3">
+        <v>73</v>
+      </c>
+      <c r="D74" s="3">
+        <v>5</v>
+      </c>
+      <c r="E74" s="3">
+        <v>73</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G74" s="3">
+        <v>13</v>
+      </c>
+      <c r="H74" s="3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>17</v>
+      </c>
+      <c r="C75" s="3">
+        <v>74</v>
+      </c>
+      <c r="D75" s="3">
+        <v>5</v>
+      </c>
+      <c r="E75" s="3">
+        <v>73</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G75" s="3">
+        <v>5</v>
+      </c>
+      <c r="H75" s="3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>17</v>
+      </c>
+      <c r="C76" s="3">
+        <v>75</v>
+      </c>
+      <c r="D76" s="3">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>74</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G76" s="3">
+        <v>6</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3">
+        <v>76</v>
+      </c>
+      <c r="D77" s="3">
+        <v>6</v>
+      </c>
+      <c r="E77" s="3">
+        <v>75</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G77" s="3">
+        <v>11</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3">
+        <v>77</v>
+      </c>
+      <c r="D78" s="3">
+        <v>6</v>
+      </c>
+      <c r="E78" s="3">
+        <v>76</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G78" s="3">
+        <v>13</v>
+      </c>
+      <c r="H78" s="3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3">
+        <v>78</v>
+      </c>
+      <c r="D79" s="3">
+        <v>6</v>
+      </c>
+      <c r="E79" s="3">
+        <v>77</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G79" s="3">
+        <v>17</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>18</v>
+      </c>
+      <c r="C80" s="3">
+        <v>79</v>
+      </c>
+      <c r="D80" s="3">
+        <v>6</v>
+      </c>
+      <c r="E80" s="3">
+        <v>78</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G80" s="3">
+        <v>5</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3">
+        <v>80</v>
+      </c>
+      <c r="D81" s="3">
+        <v>6</v>
+      </c>
+      <c r="E81" s="3">
+        <v>79</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G81" s="3">
+        <v>17</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3">
+        <v>81</v>
+      </c>
+      <c r="D82" s="3">
+        <v>6</v>
+      </c>
+      <c r="E82" s="3">
+        <v>80</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G82" s="3">
+        <v>8</v>
+      </c>
+      <c r="H82" s="3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>18</v>
+      </c>
+      <c r="C83" s="3">
+        <v>82</v>
+      </c>
+      <c r="D83" s="3">
+        <v>6</v>
+      </c>
+      <c r="E83" s="3">
+        <v>81</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83" s="3">
+        <v>13</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>18</v>
+      </c>
+      <c r="C84" s="3">
+        <v>83</v>
+      </c>
+      <c r="D84" s="3">
+        <v>6</v>
+      </c>
+      <c r="E84" s="3">
+        <v>82</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G84" s="3">
+        <v>4</v>
+      </c>
+      <c r="H84" s="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>19</v>
+      </c>
+      <c r="C85" s="3">
+        <v>84</v>
+      </c>
+      <c r="D85" s="3">
+        <v>6</v>
+      </c>
+      <c r="E85" s="3">
+        <v>83</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G85" s="3">
+        <v>7</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>19</v>
+      </c>
+      <c r="C86" s="3">
+        <v>85</v>
+      </c>
+      <c r="D86" s="3">
+        <v>6</v>
+      </c>
+      <c r="E86" s="3">
+        <v>84</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G86" s="3">
+        <v>9</v>
+      </c>
+      <c r="H86" s="3">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>19</v>
+      </c>
+      <c r="C87" s="3">
+        <v>86</v>
+      </c>
+      <c r="D87" s="3">
+        <v>6</v>
+      </c>
+      <c r="E87" s="3">
+        <v>85</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G87" s="3">
+        <v>11</v>
+      </c>
+      <c r="H87" s="3">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>19</v>
+      </c>
+      <c r="C88" s="3">
+        <v>87</v>
+      </c>
+      <c r="D88" s="3">
+        <v>6</v>
+      </c>
+      <c r="E88" s="3">
+        <v>86</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G88" s="3">
+        <v>29</v>
+      </c>
+      <c r="H88" s="3">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>19</v>
+      </c>
+      <c r="C89" s="3">
+        <v>88</v>
+      </c>
+      <c r="D89" s="3">
+        <v>6</v>
+      </c>
+      <c r="E89" s="3">
+        <v>87</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G89" s="3">
+        <v>15</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>19</v>
+      </c>
+      <c r="C90" s="3">
+        <v>89</v>
+      </c>
+      <c r="D90" s="3">
+        <v>6</v>
+      </c>
+      <c r="E90" s="3">
+        <v>88</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G90" s="3">
+        <v>17</v>
+      </c>
+      <c r="H90" s="3">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>19</v>
+      </c>
+      <c r="C91" s="3">
+        <v>90</v>
+      </c>
+      <c r="D91" s="3">
+        <v>6</v>
+      </c>
+      <c r="E91" s="3">
+        <v>89</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G91" s="3">
+        <v>13</v>
+      </c>
+      <c r="H91" s="3">
+        <v>4599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F215F004-AE5E-4EF0-9A65-1B8135AE588B}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="3" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2594,7 +3610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2605,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2616,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2627,7 +3643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2638,7 +3654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2649,7 +3665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2660,7 +3676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2671,7 +3687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2682,7 +3698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2693,7 +3709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2704,7 +3720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2715,7 +3731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2726,7 +3742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2737,7 +3753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2746,6 +3762,61 @@
       </c>
       <c r="C15" s="1">
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2756,19 +3827,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84D2B5B-0998-4B1D-9715-D9C85190E10E}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2782,7 +3853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2796,7 +3867,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2810,7 +3881,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2824,7 +3895,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2838,7 +3909,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2852,7 +3923,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2866,7 +3937,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2880,7 +3951,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2894,7 +3965,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2908,7 +3979,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2922,7 +3993,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2936,7 +4007,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2950,7 +4021,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2964,7 +4035,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2978,7 +4049,78 @@
         <v>139</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="1">
+        <v>768230102</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="1">
+        <v>673280193</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="1">
+        <v>863250103</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="1">
+        <v>899250001</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="1">
+        <v>768255077</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{5C6B4FAA-DC64-496C-B217-7B152CDEE98A}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{DA385151-E20A-4A79-944A-86BB2B1C6C7F}"/>
@@ -2994,6 +4136,11 @@
     <hyperlink ref="B13" r:id="rId12" xr:uid="{54286DE4-A761-4E0A-9A8E-44A80302043E}"/>
     <hyperlink ref="B14" r:id="rId13" xr:uid="{30AD4A02-D2F3-492E-9B96-0C434ACA57F5}"/>
     <hyperlink ref="B15" r:id="rId14" xr:uid="{58122668-7629-435E-B4CC-C2B6202B2946}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{6CFA8A40-90B3-415F-BDA4-58A020DBDA43}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{BE7622CB-9986-450C-88CE-5CA238CE3E45}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{0EE7B6E8-8F39-419C-AEAF-9D211F371431}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{F34D693C-14F2-417D-808F-EB4C45B6278A}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{7AE21EBC-95DD-40CA-AF6A-DDF09A22BE3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3001,19 +4148,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7C09E2-1DAE-48A9-9D75-D95DF5443B5C}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3027,7 +4175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3041,7 +4189,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3055,7 +4203,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3069,7 +4217,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3083,7 +4231,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3097,7 +4245,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3111,7 +4259,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3125,7 +4273,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3139,7 +4287,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3153,7 +4301,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3167,7 +4315,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3181,7 +4329,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3195,7 +4343,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3209,7 +4357,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3223,7 +4371,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3237,7 +4385,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3251,7 +4399,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3265,7 +4413,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3279,7 +4427,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3293,7 +4441,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3307,7 +4455,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3321,7 +4469,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3335,7 +4483,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3349,7 +4497,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3363,7 +4511,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3377,7 +4525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3391,7 +4539,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3405,7 +4553,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3419,7 +4567,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3433,7 +4581,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3447,7 +4595,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3461,7 +4609,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3475,7 +4623,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3489,7 +4637,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3503,7 +4651,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3517,7 +4665,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3531,7 +4679,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3545,7 +4693,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3559,7 +4707,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3573,7 +4721,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3587,7 +4735,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3601,7 +4749,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3615,7 +4763,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3629,7 +4777,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3643,7 +4791,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3657,7 +4805,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3671,7 +4819,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3685,7 +4833,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3699,7 +4847,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3713,7 +4861,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3727,7 +4875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3741,7 +4889,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3755,7 +4903,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3769,7 +4917,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3783,7 +4931,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3797,7 +4945,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3811,7 +4959,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3825,7 +4973,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3839,7 +4987,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3853,7 +5001,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3867,7 +5015,428 @@
         <v>2019</v>
       </c>
     </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>16</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>16</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>16</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>16</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>16</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>17</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>17</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>17</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>17</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>17</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>18</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>18</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>19</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>19</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>19</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>19</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>19</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>19</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>19</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3875,19 +5444,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57EBF14-A27B-4487-87DA-1B2FA7D55870}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3895,7 +5464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3903,7 +5472,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3911,7 +5480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3919,12 +5488,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3934,19 +5519,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29DCE69-940C-4803-9AAE-AA33570C8140}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3960,7 +5546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3974,7 +5560,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3988,7 +5574,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4002,7 +5588,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4016,7 +5602,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4030,7 +5616,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4044,7 +5630,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4058,7 +5644,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4072,7 +5658,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4086,7 +5672,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4100,7 +5686,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4114,7 +5700,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4128,7 +5714,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4142,7 +5728,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4156,7 +5742,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4170,7 +5756,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4184,7 +5770,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4198,7 +5784,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4212,7 +5798,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4226,7 +5812,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4240,7 +5826,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4254,7 +5840,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4268,7 +5854,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4282,7 +5868,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4296,7 +5882,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4310,7 +5896,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4324,7 +5910,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4338,7 +5924,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4352,7 +5938,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4366,7 +5952,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4380,7 +5966,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4394,7 +5980,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4408,7 +5994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4422,7 +6008,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4436,7 +6022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4450,7 +6036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4464,7 +6050,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4478,7 +6064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4492,7 +6078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4506,7 +6092,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4520,7 +6106,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4534,7 +6120,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4548,7 +6134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4562,7 +6148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4576,7 +6162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4590,7 +6176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4604,7 +6190,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4618,7 +6204,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4632,7 +6218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4646,7 +6232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4660,7 +6246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4674,7 +6260,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4688,7 +6274,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4702,7 +6288,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4716,7 +6302,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4730,7 +6316,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4744,7 +6330,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4758,7 +6344,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4772,7 +6358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4786,7 +6372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4798,6 +6384,412 @@
       </c>
       <c r="D61" s="1">
         <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>250</v>
+      </c>
+      <c r="C62" s="1">
+        <v>401</v>
+      </c>
+      <c r="D62" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>225</v>
+      </c>
+      <c r="C63" s="1">
+        <v>404</v>
+      </c>
+      <c r="D63" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>270</v>
+      </c>
+      <c r="C64" s="1">
+        <v>380</v>
+      </c>
+      <c r="D64" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>205</v>
+      </c>
+      <c r="C65" s="1">
+        <v>354</v>
+      </c>
+      <c r="D65" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>248</v>
+      </c>
+      <c r="C66" s="1">
+        <v>331</v>
+      </c>
+      <c r="D66" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>159</v>
+      </c>
+      <c r="C67" s="1">
+        <v>331</v>
+      </c>
+      <c r="D67" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>136</v>
+      </c>
+      <c r="C68" s="1">
+        <v>445</v>
+      </c>
+      <c r="D68" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>385</v>
+      </c>
+      <c r="C69" s="1">
+        <v>464</v>
+      </c>
+      <c r="D69" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>203</v>
+      </c>
+      <c r="C70" s="1">
+        <v>496</v>
+      </c>
+      <c r="D70" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>135</v>
+      </c>
+      <c r="C71" s="1">
+        <v>445</v>
+      </c>
+      <c r="D71" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>161</v>
+      </c>
+      <c r="C72" s="1">
+        <v>375</v>
+      </c>
+      <c r="D72" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>290</v>
+      </c>
+      <c r="C73" s="1">
+        <v>425</v>
+      </c>
+      <c r="D73" s="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>179</v>
+      </c>
+      <c r="C74" s="1">
+        <v>375</v>
+      </c>
+      <c r="D74" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>169</v>
+      </c>
+      <c r="C75" s="1">
+        <v>375</v>
+      </c>
+      <c r="D75" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>378</v>
+      </c>
+      <c r="C76" s="1">
+        <v>567</v>
+      </c>
+      <c r="D76" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>380</v>
+      </c>
+      <c r="C77" s="1">
+        <v>590</v>
+      </c>
+      <c r="D77" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>390</v>
+      </c>
+      <c r="C78" s="1">
+        <v>527</v>
+      </c>
+      <c r="D78" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>450</v>
+      </c>
+      <c r="C79" s="1">
+        <v>320</v>
+      </c>
+      <c r="D79" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>390</v>
+      </c>
+      <c r="C80" s="1">
+        <v>340</v>
+      </c>
+      <c r="D80" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>390</v>
+      </c>
+      <c r="C81" s="1">
+        <v>600</v>
+      </c>
+      <c r="D81" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>320</v>
+      </c>
+      <c r="C82" s="1">
+        <v>450</v>
+      </c>
+      <c r="D82" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>400</v>
+      </c>
+      <c r="C83" s="1">
+        <v>400</v>
+      </c>
+      <c r="D83" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>350</v>
+      </c>
+      <c r="C84" s="1">
+        <v>690</v>
+      </c>
+      <c r="D84" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>590</v>
+      </c>
+      <c r="C85" s="1">
+        <v>510</v>
+      </c>
+      <c r="D85" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>600</v>
+      </c>
+      <c r="C86" s="1">
+        <v>550</v>
+      </c>
+      <c r="D86" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>420</v>
+      </c>
+      <c r="C87" s="1">
+        <v>670</v>
+      </c>
+      <c r="D87" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>340</v>
+      </c>
+      <c r="C88" s="1">
+        <v>740</v>
+      </c>
+      <c r="D88" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>390</v>
+      </c>
+      <c r="C89" s="1">
+        <v>485</v>
+      </c>
+      <c r="D89" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>550</v>
+      </c>
+      <c r="C90" s="1">
+        <v>850</v>
+      </c>
+      <c r="D90" s="1">
+        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/Dane RTV.xlsx
+++ b/Dane RTV.xlsx
@@ -5,20 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politechnikawroclawska-my.sharepoint.com/personal/253035_student_pwr_edu_pl/Documents/Studia/Sem5/Baza_danych/projekt/BazaDanychProjekt-master/BazaDanychProjekt-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komputer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="455" documentId="8_{FF720995-B7C0-4412-9A67-92773D8E9126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C78A189-B1CD-450C-A2A3-3A8B3B2E1566}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D422713-B957-4553-A043-CD628CC51DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2895" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{83ACCD14-FEC2-4534-8427-075E270B5D0C}"/>
+    <workbookView xWindow="9480" yWindow="1995" windowWidth="17265" windowHeight="12855" firstSheet="5" activeTab="6" xr2:uid="{83ACCD14-FEC2-4534-8427-075E270B5D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkty" sheetId="1" r:id="rId1"/>
     <sheet name="Producenci" sheetId="2" r:id="rId2"/>
-    <sheet name="Dane Kontaktowe" sheetId="3" r:id="rId3"/>
-    <sheet name="Modele" sheetId="4" r:id="rId4"/>
-    <sheet name="Kategorie" sheetId="5" r:id="rId5"/>
-    <sheet name="Wymiary" sheetId="6" r:id="rId6"/>
+    <sheet name="Modele" sheetId="4" r:id="rId3"/>
+    <sheet name="Kategorie" sheetId="5" r:id="rId4"/>
+    <sheet name="Wymiary" sheetId="6" r:id="rId5"/>
+    <sheet name="Dane Kontaktowe" sheetId="3" r:id="rId6"/>
+    <sheet name="Pracownik" sheetId="7" r:id="rId7"/>
+    <sheet name="Dane logowania" sheetId="8" r:id="rId8"/>
+    <sheet name="Uprawnienia" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="361">
   <si>
     <t>producent_id</t>
   </si>
@@ -822,6 +825,306 @@
   </si>
   <si>
     <t>Chef XL Titanium KVL8499S</t>
+  </si>
+  <si>
+    <t>pracownik_id</t>
+  </si>
+  <si>
+    <t>dane_logowania_id</t>
+  </si>
+  <si>
+    <t>uprawnienie_id</t>
+  </si>
+  <si>
+    <t>imie</t>
+  </si>
+  <si>
+    <t>nazwisko</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>haslo</t>
+  </si>
+  <si>
+    <t>Sylwester</t>
+  </si>
+  <si>
+    <t>Leopold</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Joanna</t>
+  </si>
+  <si>
+    <t>Krawczyk</t>
+  </si>
+  <si>
+    <t>Bielecka</t>
+  </si>
+  <si>
+    <t>Andrzej</t>
+  </si>
+  <si>
+    <t>Czajkowski</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
+  </si>
+  <si>
+    <t>Dorian</t>
+  </si>
+  <si>
+    <t>Andrzejewski</t>
+  </si>
+  <si>
+    <t>Aleks</t>
+  </si>
+  <si>
+    <t>Dobrowolski</t>
+  </si>
+  <si>
+    <t>Helmut</t>
+  </si>
+  <si>
+    <t>Kurowski</t>
+  </si>
+  <si>
+    <t>Wanda</t>
+  </si>
+  <si>
+    <t>Grzelak</t>
+  </si>
+  <si>
+    <t>Brunon</t>
+  </si>
+  <si>
+    <t>Orzechowski</t>
+  </si>
+  <si>
+    <t>Aleksandra</t>
+  </si>
+  <si>
+    <t>Michalska</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Sobczak</t>
+  </si>
+  <si>
+    <t>Mariusz</t>
+  </si>
+  <si>
+    <t>Bielecki</t>
+  </si>
+  <si>
+    <t>Zenona</t>
+  </si>
+  <si>
+    <t>Przybylska</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Nawrocki</t>
+  </si>
+  <si>
+    <t>sk1</t>
+  </si>
+  <si>
+    <t>535EBC602DD393B5198F28A53C639CDE5071C73B322B99B39F38AF781F541939</t>
+  </si>
+  <si>
+    <t>Wrocław Zatorska 103</t>
+  </si>
+  <si>
+    <t>uprawnienie</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Pracownik</t>
+  </si>
+  <si>
+    <t>lk2</t>
+  </si>
+  <si>
+    <t>9A39CA6A3A47EEF1E8F872EB58BF8CFD3A764AB81BE2E3AAD8CAC893FE33FAD9</t>
+  </si>
+  <si>
+    <t>Wrocław Krzywoustego 3</t>
+  </si>
+  <si>
+    <t>jb3</t>
+  </si>
+  <si>
+    <t>A4B54456007B1123D573F788E62E467DD104307892DC5CBE4AA392DFFB89A6E6</t>
+  </si>
+  <si>
+    <t>Wrocław Kromera 43</t>
+  </si>
+  <si>
+    <t>ac4</t>
+  </si>
+  <si>
+    <t>28E495A97601B511E8ED811FA28D330A1C778252F4DE772C600DC9B14AEE79A1</t>
+  </si>
+  <si>
+    <t>Wrocław Hallera 22</t>
+  </si>
+  <si>
+    <t>sl5</t>
+  </si>
+  <si>
+    <t>4FC7F2AA700DDFF329F1C0A826E2B750941C35D0C3E8DF87D86F13DB9B8D2893</t>
+  </si>
+  <si>
+    <t>sk1@rtv.com</t>
+  </si>
+  <si>
+    <t>lk2@rtv.com</t>
+  </si>
+  <si>
+    <t>jb3@rtv.com</t>
+  </si>
+  <si>
+    <t>ac4@rtv.com</t>
+  </si>
+  <si>
+    <t>sl5@rtv.com</t>
+  </si>
+  <si>
+    <t>Wrocław Wrzosowa 3</t>
+  </si>
+  <si>
+    <t>da6</t>
+  </si>
+  <si>
+    <t>6E8E1A3CC4D5E4B7B9320F87F7B5025CB2812C31E4F9CEBC6DFE7923259AA913</t>
+  </si>
+  <si>
+    <t>da6@rtv.com</t>
+  </si>
+  <si>
+    <t>Wrocław Kwiatowa 4</t>
+  </si>
+  <si>
+    <t>ad7</t>
+  </si>
+  <si>
+    <t>5299D287C20961B75467F5EFBDBAC4E5232B5A9F15CC3C3D293F1293045912B6</t>
+  </si>
+  <si>
+    <t>ad7@rtv.com</t>
+  </si>
+  <si>
+    <t>Wrocław Zielińskiego 57</t>
+  </si>
+  <si>
+    <t>hk8</t>
+  </si>
+  <si>
+    <t>2923F470B0187B06FCE498025623F553ACCEED1864D330AA640FD5BF5D30A9D9</t>
+  </si>
+  <si>
+    <t>hk8@rtv.com</t>
+  </si>
+  <si>
+    <t>Wrocław Różana 27</t>
+  </si>
+  <si>
+    <t>wg9</t>
+  </si>
+  <si>
+    <t>EC9CFCC3C537811C88DB3DC2BD54A08DAFC2B157C8DF73D102BF0CB3706A2A3A</t>
+  </si>
+  <si>
+    <t>wg9@rtv.com</t>
+  </si>
+  <si>
+    <t>Wrocław Kamieńskiego 89</t>
+  </si>
+  <si>
+    <t>bo10</t>
+  </si>
+  <si>
+    <t>099FAE0FD4FABC201C9D38EBE5D74892DA260015A894C0D06D3D964787978DE9</t>
+  </si>
+  <si>
+    <t>bo10@rtv.com</t>
+  </si>
+  <si>
+    <t>Wrocław Dębicka 36</t>
+  </si>
+  <si>
+    <t>am11</t>
+  </si>
+  <si>
+    <t>8451C7F0C8C0FE3B0B52984E5C571500F2E71C25C34C5BFDF7D8B54DB65724F0</t>
+  </si>
+  <si>
+    <t>Wrocław Czekoladowa 55</t>
+  </si>
+  <si>
+    <t>am11@rtv.com</t>
+  </si>
+  <si>
+    <t>ns12</t>
+  </si>
+  <si>
+    <t>319DA1C188D6EED4DD950C55563438D599269AAF1D174CDFCD6D56488A491546</t>
+  </si>
+  <si>
+    <t>ns12@rtv.com</t>
+  </si>
+  <si>
+    <t>Wrocław Zatorska 53</t>
+  </si>
+  <si>
+    <t>mb13</t>
+  </si>
+  <si>
+    <t>FA77A7C95CEFF3BCE24E3606D392B2CCED3C6205766268B41A66B881613215DA</t>
+  </si>
+  <si>
+    <t>mb13@rtv.com</t>
+  </si>
+  <si>
+    <t>Wrocław Kromera 12</t>
+  </si>
+  <si>
+    <t>zp14</t>
+  </si>
+  <si>
+    <t>32041037A3467F212CFB660EBC872AF25DE880018C4B63EBFCCD45F8F924E066</t>
+  </si>
+  <si>
+    <t>zp14@rtv.com</t>
+  </si>
+  <si>
+    <t>Wrocław Kwidzyńskiego 86</t>
+  </si>
+  <si>
+    <t>an15</t>
+  </si>
+  <si>
+    <t>4B8BD2493C3E86BBA8839584950164BB4B320E2D022E6B061BCF39F978D8C4FD</t>
+  </si>
+  <si>
+    <t>an15@rtv.com</t>
+  </si>
+  <si>
+    <t>Wrocław Kamieńskiego 13</t>
   </si>
 </sst>
 </file>
@@ -875,11 +1178,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -1202,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6F61ED-3143-4309-97D0-1AA785A34847}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
@@ -3826,11 +4130,2662 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7C09E2-1DAE-48A9-9D75-D95DF5443B5C}">
+  <dimension ref="A1:D91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>13</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>13</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>16</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>16</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>16</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>16</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>16</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>17</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>17</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>17</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>17</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>17</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>18</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>18</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>19</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>19</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>19</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>19</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>19</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>19</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>19</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57EBF14-A27B-4487-87DA-1B2FA7D55870}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29DCE69-940C-4803-9AAE-AA33570C8140}">
+  <dimension ref="A1:D90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2080</v>
+      </c>
+      <c r="C2" s="1">
+        <v>640</v>
+      </c>
+      <c r="D2" s="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2090</v>
+      </c>
+      <c r="C3" s="1">
+        <v>650</v>
+      </c>
+      <c r="D3" s="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1960</v>
+      </c>
+      <c r="C4" s="1">
+        <v>630</v>
+      </c>
+      <c r="D4" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1790</v>
+      </c>
+      <c r="C5" s="1">
+        <v>912</v>
+      </c>
+      <c r="D5" s="1">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1935</v>
+      </c>
+      <c r="C6" s="1">
+        <v>595</v>
+      </c>
+      <c r="D6" s="1">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2111</v>
+      </c>
+      <c r="C7" s="1">
+        <v>750</v>
+      </c>
+      <c r="D7" s="1">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1943</v>
+      </c>
+      <c r="C8" s="1">
+        <v>600</v>
+      </c>
+      <c r="D8" s="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1905</v>
+      </c>
+      <c r="C9" s="1">
+        <v>600</v>
+      </c>
+      <c r="D9" s="1">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1780</v>
+      </c>
+      <c r="C10" s="1">
+        <v>912</v>
+      </c>
+      <c r="D10" s="1">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2030</v>
+      </c>
+      <c r="C11" s="1">
+        <v>595</v>
+      </c>
+      <c r="D11" s="1">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2003</v>
+      </c>
+      <c r="C12" s="1">
+        <v>595</v>
+      </c>
+      <c r="D12" s="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2030</v>
+      </c>
+      <c r="C13" s="1">
+        <v>595</v>
+      </c>
+      <c r="D13" s="1">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1785</v>
+      </c>
+      <c r="C14" s="1">
+        <v>912</v>
+      </c>
+      <c r="D14" s="1">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1905</v>
+      </c>
+      <c r="C15" s="1">
+        <v>700</v>
+      </c>
+      <c r="D15" s="1">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2135</v>
+      </c>
+      <c r="C16" s="1">
+        <v>634</v>
+      </c>
+      <c r="D16" s="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>433</v>
+      </c>
+      <c r="C17" s="1">
+        <v>246</v>
+      </c>
+      <c r="D17" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>323</v>
+      </c>
+      <c r="C18" s="1">
+        <v>271</v>
+      </c>
+      <c r="D18" s="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>365</v>
+      </c>
+      <c r="C19" s="1">
+        <v>240</v>
+      </c>
+      <c r="D19" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>385</v>
+      </c>
+      <c r="C20" s="1">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>248</v>
+      </c>
+      <c r="C21" s="1">
+        <v>236</v>
+      </c>
+      <c r="D21" s="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>367</v>
+      </c>
+      <c r="C22" s="1">
+        <v>277</v>
+      </c>
+      <c r="D22" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>433</v>
+      </c>
+      <c r="C23" s="1">
+        <v>246</v>
+      </c>
+      <c r="D23" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>395</v>
+      </c>
+      <c r="C24" s="1">
+        <v>287</v>
+      </c>
+      <c r="D24" s="1">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>375</v>
+      </c>
+      <c r="C25" s="1">
+        <v>260</v>
+      </c>
+      <c r="D25" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>362</v>
+      </c>
+      <c r="C26" s="1">
+        <v>363</v>
+      </c>
+      <c r="D26" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>390</v>
+      </c>
+      <c r="C27" s="1">
+        <v>262</v>
+      </c>
+      <c r="D27" s="1">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>395</v>
+      </c>
+      <c r="C28" s="1">
+        <v>287</v>
+      </c>
+      <c r="D28" s="1">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>360</v>
+      </c>
+      <c r="C29" s="1">
+        <v>240</v>
+      </c>
+      <c r="D29" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>385</v>
+      </c>
+      <c r="C30" s="1">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>351</v>
+      </c>
+      <c r="C31" s="1">
+        <v>238</v>
+      </c>
+      <c r="D31" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>710</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1232</v>
+      </c>
+      <c r="D32" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>839</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1452</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>830</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1446</v>
+      </c>
+      <c r="D34" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>830</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1449</v>
+      </c>
+      <c r="D35" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>962</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1675</v>
+      </c>
+      <c r="D36" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>750</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1290</v>
+      </c>
+      <c r="D37" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>835</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1452</v>
+      </c>
+      <c r="D38" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>716</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1233</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>827</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1446</v>
+      </c>
+      <c r="D40" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>962</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1675</v>
+      </c>
+      <c r="D41" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>835</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1450</v>
+      </c>
+      <c r="D42" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>710</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1233</v>
+      </c>
+      <c r="D43" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>706</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1228</v>
+      </c>
+      <c r="D44" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>706</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1228</v>
+      </c>
+      <c r="D45" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>959</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1670</v>
+      </c>
+      <c r="D46" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>58</v>
+      </c>
+      <c r="C47" s="1">
+        <v>980</v>
+      </c>
+      <c r="D47" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>58</v>
+      </c>
+      <c r="C48" s="1">
+        <v>980</v>
+      </c>
+      <c r="D48" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>110</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1060</v>
+      </c>
+      <c r="D49" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>64</v>
+      </c>
+      <c r="C50" s="1">
+        <v>900</v>
+      </c>
+      <c r="D50" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>54</v>
+      </c>
+      <c r="C51" s="1">
+        <v>860</v>
+      </c>
+      <c r="D51" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>64</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1120</v>
+      </c>
+      <c r="D52" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>57</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1060</v>
+      </c>
+      <c r="D53" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>62</v>
+      </c>
+      <c r="C54" s="1">
+        <v>980</v>
+      </c>
+      <c r="D54" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>65</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D55" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>58</v>
+      </c>
+      <c r="C56" s="1">
+        <v>960</v>
+      </c>
+      <c r="D56" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1">
+        <v>890</v>
+      </c>
+      <c r="D57" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>90</v>
+      </c>
+      <c r="C58" s="1">
+        <v>900</v>
+      </c>
+      <c r="D58" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>64</v>
+      </c>
+      <c r="C59" s="1">
+        <v>900</v>
+      </c>
+      <c r="D59" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1">
+        <v>950</v>
+      </c>
+      <c r="D60" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>55</v>
+      </c>
+      <c r="C61" s="1">
+        <v>660</v>
+      </c>
+      <c r="D61" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>250</v>
+      </c>
+      <c r="C62" s="1">
+        <v>401</v>
+      </c>
+      <c r="D62" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>225</v>
+      </c>
+      <c r="C63" s="1">
+        <v>404</v>
+      </c>
+      <c r="D63" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>270</v>
+      </c>
+      <c r="C64" s="1">
+        <v>380</v>
+      </c>
+      <c r="D64" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>205</v>
+      </c>
+      <c r="C65" s="1">
+        <v>354</v>
+      </c>
+      <c r="D65" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>248</v>
+      </c>
+      <c r="C66" s="1">
+        <v>331</v>
+      </c>
+      <c r="D66" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>159</v>
+      </c>
+      <c r="C67" s="1">
+        <v>331</v>
+      </c>
+      <c r="D67" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>136</v>
+      </c>
+      <c r="C68" s="1">
+        <v>445</v>
+      </c>
+      <c r="D68" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>385</v>
+      </c>
+      <c r="C69" s="1">
+        <v>464</v>
+      </c>
+      <c r="D69" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>203</v>
+      </c>
+      <c r="C70" s="1">
+        <v>496</v>
+      </c>
+      <c r="D70" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>135</v>
+      </c>
+      <c r="C71" s="1">
+        <v>445</v>
+      </c>
+      <c r="D71" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>161</v>
+      </c>
+      <c r="C72" s="1">
+        <v>375</v>
+      </c>
+      <c r="D72" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>290</v>
+      </c>
+      <c r="C73" s="1">
+        <v>425</v>
+      </c>
+      <c r="D73" s="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>179</v>
+      </c>
+      <c r="C74" s="1">
+        <v>375</v>
+      </c>
+      <c r="D74" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>169</v>
+      </c>
+      <c r="C75" s="1">
+        <v>375</v>
+      </c>
+      <c r="D75" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>378</v>
+      </c>
+      <c r="C76" s="1">
+        <v>567</v>
+      </c>
+      <c r="D76" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>380</v>
+      </c>
+      <c r="C77" s="1">
+        <v>590</v>
+      </c>
+      <c r="D77" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>390</v>
+      </c>
+      <c r="C78" s="1">
+        <v>527</v>
+      </c>
+      <c r="D78" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>450</v>
+      </c>
+      <c r="C79" s="1">
+        <v>320</v>
+      </c>
+      <c r="D79" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>390</v>
+      </c>
+      <c r="C80" s="1">
+        <v>340</v>
+      </c>
+      <c r="D80" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>390</v>
+      </c>
+      <c r="C81" s="1">
+        <v>600</v>
+      </c>
+      <c r="D81" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>320</v>
+      </c>
+      <c r="C82" s="1">
+        <v>450</v>
+      </c>
+      <c r="D82" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>400</v>
+      </c>
+      <c r="C83" s="1">
+        <v>400</v>
+      </c>
+      <c r="D83" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>350</v>
+      </c>
+      <c r="C84" s="1">
+        <v>690</v>
+      </c>
+      <c r="D84" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>590</v>
+      </c>
+      <c r="C85" s="1">
+        <v>510</v>
+      </c>
+      <c r="D85" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>600</v>
+      </c>
+      <c r="C86" s="1">
+        <v>550</v>
+      </c>
+      <c r="D86" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>420</v>
+      </c>
+      <c r="C87" s="1">
+        <v>670</v>
+      </c>
+      <c r="D87" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>340</v>
+      </c>
+      <c r="C88" s="1">
+        <v>740</v>
+      </c>
+      <c r="D88" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>390</v>
+      </c>
+      <c r="C89" s="1">
+        <v>485</v>
+      </c>
+      <c r="D89" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>550</v>
+      </c>
+      <c r="C90" s="1">
+        <v>850</v>
+      </c>
+      <c r="D90" s="1">
+        <v>850</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84D2B5B-0998-4B1D-9715-D9C85190E10E}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G34" sqref="G33:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4117,6 +7072,216 @@
       </c>
       <c r="D20" s="1" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="1">
+        <v>632887221</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="1">
+        <v>735611882</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="1">
+        <v>516224785</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="1">
+        <v>512556709</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" s="1">
+        <v>745211905</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" s="1">
+        <v>756890543</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" s="1">
+        <v>732211974</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C28" s="1">
+        <v>557478900</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" s="1">
+        <v>533467901</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="1">
+        <v>786541998</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C31" s="1">
+        <v>772321156</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C32" s="1">
+        <v>555673211</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C33" s="1">
+        <v>711253119</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C34" s="1">
+        <v>599312563</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C35" s="1">
+        <v>765340560</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4141,1375 +7306,358 @@
     <hyperlink ref="B18" r:id="rId17" xr:uid="{0EE7B6E8-8F39-419C-AEAF-9D211F371431}"/>
     <hyperlink ref="B19" r:id="rId18" xr:uid="{F34D693C-14F2-417D-808F-EB4C45B6278A}"/>
     <hyperlink ref="B20" r:id="rId19" xr:uid="{7AE21EBC-95DD-40CA-AF6A-DDF09A22BE3B}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{F0EDB4B3-4823-4E85-B9E3-98C72A5343D9}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{E69A1B55-491E-4777-972E-0A13A4BECADF}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{DE73E472-57D0-4213-A4A5-F038DFE75C76}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{07B090AE-E30A-4052-9E3A-FEC7805F7A87}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{F6E13181-4E6F-4D8C-B29B-9E3EFCF1D709}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{C00E6EE0-3E12-4926-BE75-F915A60B9394}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{E32802F8-B373-4668-B458-09C8B18C1321}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{70E7562E-9717-4929-822D-635B84D8BE88}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{D0AB8773-78BD-4F08-A493-9357F8267078}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{BCDCF6C0-8E84-4B67-A0CD-1EB5279A51F7}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{B2DB3864-648B-42DF-B616-702EC2B834CB}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{6D6C4211-B356-47DB-B506-5598588C0F56}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{94975F6D-082C-4ABB-9584-C7A6F0AFD467}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{583942A7-9259-4C1E-BB66-7C9FF71454F5}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{672BBAEB-E58A-4F5B-B460-239F547053B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7C09E2-1DAE-48A9-9D75-D95DF5443B5C}">
-  <dimension ref="A1:D91"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BF6274-0356-4A63-A947-5A28FE30C43E}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="14.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="E14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
         <v>34</v>
       </c>
-      <c r="D5" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>13</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>14</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <v>7</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1">
-        <v>13</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1">
-        <v>14</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1">
-        <v>4</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1">
-        <v>13</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1">
-        <v>7</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1">
-        <v>13</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1">
-        <v>4</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1">
-        <v>15</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D62" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1">
-        <v>15</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1">
-        <v>16</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1">
-        <v>16</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1">
-        <v>16</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1">
-        <v>15</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" s="1">
-        <v>15</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D68" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" s="1">
-        <v>16</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" s="1">
-        <v>16</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D70" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1">
-        <v>15</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1">
-        <v>17</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D72" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1">
-        <v>17</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74" s="1">
-        <v>17</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D74" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75" s="1">
-        <v>17</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D75" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" s="1">
-        <v>17</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D76" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77" s="1">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78" s="1">
-        <v>2</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D78" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="B79" s="1">
-        <v>2</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D79" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" s="1">
-        <v>18</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D80" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1">
-        <v>2</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D81" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82" s="1">
-        <v>2</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D82" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>82</v>
-      </c>
-      <c r="B83" s="1">
-        <v>18</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D83" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="B84" s="1">
-        <v>18</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D84" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85" s="1">
-        <v>19</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D85" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="B86" s="1">
-        <v>19</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D86" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
-      <c r="B87" s="1">
-        <v>19</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D87" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
-      <c r="B88" s="1">
-        <v>19</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D88" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
-      <c r="B89" s="1">
-        <v>19</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D89" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
-      <c r="B90" s="1">
-        <v>19</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D90" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-      <c r="B91" s="1">
-        <v>19</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D91" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57EBF14-A27B-4487-87DA-1B2FA7D55870}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>225</v>
+      <c r="E16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5517,1279 +7665,229 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29DCE69-940C-4803-9AAE-AA33570C8140}">
-  <dimension ref="A1:D90"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3A7A7-5AA7-451F-88A4-1F6DA9826C8F}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="14.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="B4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C37CB46-02BC-4972-AFFE-6144681A2349}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>2080</v>
-      </c>
-      <c r="C2" s="1">
-        <v>640</v>
-      </c>
-      <c r="D2" s="1">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2090</v>
-      </c>
-      <c r="C3" s="1">
-        <v>650</v>
-      </c>
-      <c r="D3" s="1">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1960</v>
-      </c>
-      <c r="C4" s="1">
-        <v>630</v>
-      </c>
-      <c r="D4" s="1">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1790</v>
-      </c>
-      <c r="C5" s="1">
-        <v>912</v>
-      </c>
-      <c r="D5" s="1">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1935</v>
-      </c>
-      <c r="C6" s="1">
-        <v>595</v>
-      </c>
-      <c r="D6" s="1">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2111</v>
-      </c>
-      <c r="C7" s="1">
-        <v>750</v>
-      </c>
-      <c r="D7" s="1">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1943</v>
-      </c>
-      <c r="C8" s="1">
-        <v>600</v>
-      </c>
-      <c r="D8" s="1">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1905</v>
-      </c>
-      <c r="C9" s="1">
-        <v>600</v>
-      </c>
-      <c r="D9" s="1">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1780</v>
-      </c>
-      <c r="C10" s="1">
-        <v>912</v>
-      </c>
-      <c r="D10" s="1">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2030</v>
-      </c>
-      <c r="C11" s="1">
-        <v>595</v>
-      </c>
-      <c r="D11" s="1">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2003</v>
-      </c>
-      <c r="C12" s="1">
-        <v>595</v>
-      </c>
-      <c r="D12" s="1">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2030</v>
-      </c>
-      <c r="C13" s="1">
-        <v>595</v>
-      </c>
-      <c r="D13" s="1">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1785</v>
-      </c>
-      <c r="C14" s="1">
-        <v>912</v>
-      </c>
-      <c r="D14" s="1">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1905</v>
-      </c>
-      <c r="C15" s="1">
-        <v>700</v>
-      </c>
-      <c r="D15" s="1">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2135</v>
-      </c>
-      <c r="C16" s="1">
-        <v>634</v>
-      </c>
-      <c r="D16" s="1">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>433</v>
-      </c>
-      <c r="C17" s="1">
-        <v>246</v>
-      </c>
-      <c r="D17" s="1">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>323</v>
-      </c>
-      <c r="C18" s="1">
-        <v>271</v>
-      </c>
-      <c r="D18" s="1">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>365</v>
-      </c>
-      <c r="C19" s="1">
-        <v>240</v>
-      </c>
-      <c r="D19" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>385</v>
-      </c>
-      <c r="C20" s="1">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>248</v>
-      </c>
-      <c r="C21" s="1">
-        <v>236</v>
-      </c>
-      <c r="D21" s="1">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>367</v>
-      </c>
-      <c r="C22" s="1">
-        <v>277</v>
-      </c>
-      <c r="D22" s="1">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>433</v>
-      </c>
-      <c r="C23" s="1">
-        <v>246</v>
-      </c>
-      <c r="D23" s="1">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>395</v>
-      </c>
-      <c r="C24" s="1">
-        <v>287</v>
-      </c>
-      <c r="D24" s="1">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>375</v>
-      </c>
-      <c r="C25" s="1">
-        <v>260</v>
-      </c>
-      <c r="D25" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>362</v>
-      </c>
-      <c r="C26" s="1">
-        <v>363</v>
-      </c>
-      <c r="D26" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>390</v>
-      </c>
-      <c r="C27" s="1">
-        <v>262</v>
-      </c>
-      <c r="D27" s="1">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>395</v>
-      </c>
-      <c r="C28" s="1">
-        <v>287</v>
-      </c>
-      <c r="D28" s="1">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>360</v>
-      </c>
-      <c r="C29" s="1">
-        <v>240</v>
-      </c>
-      <c r="D29" s="1">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>385</v>
-      </c>
-      <c r="C30" s="1">
-        <v>28</v>
-      </c>
-      <c r="D30" s="1">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>351</v>
-      </c>
-      <c r="C31" s="1">
-        <v>238</v>
-      </c>
-      <c r="D31" s="1">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>710</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1232</v>
-      </c>
-      <c r="D32" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>839</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1452</v>
-      </c>
-      <c r="D33" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>830</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1446</v>
-      </c>
-      <c r="D34" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>830</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1449</v>
-      </c>
-      <c r="D35" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>962</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1675</v>
-      </c>
-      <c r="D36" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>750</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1290</v>
-      </c>
-      <c r="D37" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>835</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1452</v>
-      </c>
-      <c r="D38" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>716</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1233</v>
-      </c>
-      <c r="D39" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>827</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1446</v>
-      </c>
-      <c r="D40" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>962</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1675</v>
-      </c>
-      <c r="D41" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>835</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1450</v>
-      </c>
-      <c r="D42" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <v>710</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1233</v>
-      </c>
-      <c r="D43" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>706</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1228</v>
-      </c>
-      <c r="D44" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>706</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1228</v>
-      </c>
-      <c r="D45" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>959</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1670</v>
-      </c>
-      <c r="D46" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>58</v>
-      </c>
-      <c r="C47" s="1">
-        <v>980</v>
-      </c>
-      <c r="D47" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>58</v>
-      </c>
-      <c r="C48" s="1">
-        <v>980</v>
-      </c>
-      <c r="D48" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <v>110</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1060</v>
-      </c>
-      <c r="D49" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1">
-        <v>64</v>
-      </c>
-      <c r="C50" s="1">
-        <v>900</v>
-      </c>
-      <c r="D50" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <v>54</v>
-      </c>
-      <c r="C51" s="1">
-        <v>860</v>
-      </c>
-      <c r="D51" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1">
-        <v>64</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1120</v>
-      </c>
-      <c r="D52" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <v>57</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1060</v>
-      </c>
-      <c r="D53" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1">
-        <v>62</v>
-      </c>
-      <c r="C54" s="1">
-        <v>980</v>
-      </c>
-      <c r="D54" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1">
-        <v>65</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D55" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1">
-        <v>58</v>
-      </c>
-      <c r="C56" s="1">
-        <v>960</v>
-      </c>
-      <c r="D56" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1">
-        <v>64</v>
-      </c>
-      <c r="C57" s="1">
-        <v>890</v>
-      </c>
-      <c r="D57" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1">
-        <v>90</v>
-      </c>
-      <c r="C58" s="1">
-        <v>900</v>
-      </c>
-      <c r="D58" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1">
-        <v>64</v>
-      </c>
-      <c r="C59" s="1">
-        <v>900</v>
-      </c>
-      <c r="D59" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1">
-        <v>60</v>
-      </c>
-      <c r="C60" s="1">
-        <v>950</v>
-      </c>
-      <c r="D60" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1">
-        <v>55</v>
-      </c>
-      <c r="C61" s="1">
-        <v>660</v>
-      </c>
-      <c r="D61" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1">
-        <v>250</v>
-      </c>
-      <c r="C62" s="1">
-        <v>401</v>
-      </c>
-      <c r="D62" s="1">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1">
-        <v>225</v>
-      </c>
-      <c r="C63" s="1">
-        <v>404</v>
-      </c>
-      <c r="D63" s="1">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1">
-        <v>270</v>
-      </c>
-      <c r="C64" s="1">
-        <v>380</v>
-      </c>
-      <c r="D64" s="1">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1">
-        <v>205</v>
-      </c>
-      <c r="C65" s="1">
-        <v>354</v>
-      </c>
-      <c r="D65" s="1">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1">
-        <v>248</v>
-      </c>
-      <c r="C66" s="1">
-        <v>331</v>
-      </c>
-      <c r="D66" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1">
-        <v>159</v>
-      </c>
-      <c r="C67" s="1">
-        <v>331</v>
-      </c>
-      <c r="D67" s="1">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" s="1">
-        <v>136</v>
-      </c>
-      <c r="C68" s="1">
-        <v>445</v>
-      </c>
-      <c r="D68" s="1">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" s="1">
-        <v>385</v>
-      </c>
-      <c r="C69" s="1">
-        <v>464</v>
-      </c>
-      <c r="D69" s="1">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" s="1">
-        <v>203</v>
-      </c>
-      <c r="C70" s="1">
-        <v>496</v>
-      </c>
-      <c r="D70" s="1">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1">
-        <v>135</v>
-      </c>
-      <c r="C71" s="1">
-        <v>445</v>
-      </c>
-      <c r="D71" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1">
-        <v>161</v>
-      </c>
-      <c r="C72" s="1">
-        <v>375</v>
-      </c>
-      <c r="D72" s="1">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1">
-        <v>290</v>
-      </c>
-      <c r="C73" s="1">
-        <v>425</v>
-      </c>
-      <c r="D73" s="1">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74" s="1">
-        <v>179</v>
-      </c>
-      <c r="C74" s="1">
-        <v>375</v>
-      </c>
-      <c r="D74" s="1">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75" s="1">
-        <v>169</v>
-      </c>
-      <c r="C75" s="1">
-        <v>375</v>
-      </c>
-      <c r="D75" s="1">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" s="1">
-        <v>378</v>
-      </c>
-      <c r="C76" s="1">
-        <v>567</v>
-      </c>
-      <c r="D76" s="1">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77" s="1">
-        <v>380</v>
-      </c>
-      <c r="C77" s="1">
-        <v>590</v>
-      </c>
-      <c r="D77" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78" s="1">
-        <v>390</v>
-      </c>
-      <c r="C78" s="1">
-        <v>527</v>
-      </c>
-      <c r="D78" s="1">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="B79" s="1">
-        <v>450</v>
-      </c>
-      <c r="C79" s="1">
-        <v>320</v>
-      </c>
-      <c r="D79" s="1">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" s="1">
-        <v>390</v>
-      </c>
-      <c r="C80" s="1">
-        <v>340</v>
-      </c>
-      <c r="D80" s="1">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1">
-        <v>390</v>
-      </c>
-      <c r="C81" s="1">
-        <v>600</v>
-      </c>
-      <c r="D81" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82" s="1">
-        <v>320</v>
-      </c>
-      <c r="C82" s="1">
-        <v>450</v>
-      </c>
-      <c r="D82" s="1">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>82</v>
-      </c>
-      <c r="B83" s="1">
-        <v>400</v>
-      </c>
-      <c r="C83" s="1">
-        <v>400</v>
-      </c>
-      <c r="D83" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="B84" s="1">
-        <v>350</v>
-      </c>
-      <c r="C84" s="1">
-        <v>690</v>
-      </c>
-      <c r="D84" s="1">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85" s="1">
-        <v>590</v>
-      </c>
-      <c r="C85" s="1">
-        <v>510</v>
-      </c>
-      <c r="D85" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="B86" s="1">
-        <v>600</v>
-      </c>
-      <c r="C86" s="1">
-        <v>550</v>
-      </c>
-      <c r="D86" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
-      <c r="B87" s="1">
-        <v>420</v>
-      </c>
-      <c r="C87" s="1">
-        <v>670</v>
-      </c>
-      <c r="D87" s="1">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
-      <c r="B88" s="1">
-        <v>340</v>
-      </c>
-      <c r="C88" s="1">
-        <v>740</v>
-      </c>
-      <c r="D88" s="1">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
-      <c r="B89" s="1">
-        <v>390</v>
-      </c>
-      <c r="C89" s="1">
-        <v>485</v>
-      </c>
-      <c r="D89" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
-      <c r="B90" s="1">
-        <v>550</v>
-      </c>
-      <c r="C90" s="1">
-        <v>850</v>
-      </c>
-      <c r="D90" s="1">
-        <v>850</v>
+      <c r="B3" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
